--- a/rank_analysis/4-2-analysis.xlsx
+++ b/rank_analysis/4-2-analysis.xlsx
@@ -388,7 +388,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1122.2</t>
+          <t>270.9</t>
         </is>
       </c>
     </row>
@@ -405,7 +405,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1152.4</t>
+          <t>306.0</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1047.64</t>
+          <t>252.86</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1102.9</t>
+          <t>274.76</t>
         </is>
       </c>
     </row>
@@ -451,12 +451,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>914.454</t>
+          <t>250.196</t>
         </is>
       </c>
     </row>
@@ -468,12 +468,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>955.956</t>
+          <t>214.321</t>
         </is>
       </c>
     </row>
